--- a/examples/sources/data/unsolved/to_schedule/2018-11-20.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-20.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Reitano\Documents\GitHub\optaplanner-time\examples\sources\data\unsolved\to_schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FFB48D-5F35-497D-913D-71D0E02D8B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -457,11 +463,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +531,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -571,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,9 +617,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,6 +669,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,14 +862,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M63" sqref="M63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>96319</v>
       </c>
@@ -925,7 +977,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>96320</v>
       </c>
@@ -975,7 +1027,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>96321</v>
       </c>
@@ -1025,7 +1077,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>96322</v>
       </c>
@@ -1066,7 +1118,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>96323</v>
       </c>
@@ -1107,7 +1159,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>96324</v>
       </c>
@@ -1148,7 +1200,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>96325</v>
       </c>
@@ -1198,7 +1250,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>96325</v>
       </c>
@@ -1248,7 +1300,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>96326</v>
       </c>
@@ -1289,7 +1341,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>96326</v>
       </c>
@@ -1330,7 +1382,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>96327</v>
       </c>
@@ -1371,7 +1423,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>96328</v>
       </c>
@@ -1412,7 +1464,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>96328</v>
       </c>
@@ -1453,7 +1505,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>96328</v>
       </c>
@@ -1494,7 +1546,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>96328</v>
       </c>
@@ -1535,7 +1587,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>96328</v>
       </c>
@@ -1576,7 +1628,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>96328</v>
       </c>
@@ -1617,7 +1669,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>96329</v>
       </c>
@@ -1658,7 +1710,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>96330</v>
       </c>
@@ -1708,7 +1760,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>96331</v>
       </c>
@@ -1749,7 +1801,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>96332</v>
       </c>
@@ -1790,7 +1842,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>96333</v>
       </c>
@@ -1840,7 +1892,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>96334</v>
       </c>
@@ -1890,7 +1942,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>96335</v>
       </c>
@@ -1931,7 +1983,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>96336</v>
       </c>
@@ -1966,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>96338</v>
       </c>
@@ -2013,7 +2065,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>96339</v>
       </c>
@@ -2063,7 +2115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>96339</v>
       </c>
@@ -2113,7 +2165,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>96340</v>
       </c>
@@ -2145,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2154,7 +2206,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>96341</v>
       </c>
@@ -2204,7 +2256,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>96341</v>
       </c>
@@ -2254,7 +2306,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>96342</v>
       </c>
@@ -2289,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>96343</v>
       </c>
@@ -2327,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2336,7 +2388,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>96344</v>
       </c>
@@ -2377,7 +2429,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>96345</v>
       </c>
@@ -2418,7 +2470,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>96346</v>
       </c>
@@ -2450,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2459,7 +2511,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>96347</v>
       </c>
@@ -2509,7 +2561,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>96348</v>
       </c>
@@ -2544,13 +2596,13 @@
         <v>1</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>96349</v>
       </c>
@@ -2582,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2591,7 +2643,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>96351</v>
       </c>
@@ -2626,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>96352</v>
       </c>
@@ -2673,7 +2725,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>96353</v>
       </c>
@@ -2714,7 +2766,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>96354</v>
       </c>
@@ -2755,7 +2807,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>96356</v>
       </c>
@@ -2796,7 +2848,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>96357</v>
       </c>
@@ -2828,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2837,7 +2889,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>96358</v>
       </c>
@@ -2878,7 +2930,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>96358</v>
       </c>
@@ -2919,7 +2971,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>96358</v>
       </c>
@@ -2960,7 +3012,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>96358</v>
       </c>
@@ -3001,7 +3053,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>96359</v>
       </c>
@@ -3036,13 +3088,13 @@
         <v>1</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>96360</v>
       </c>
@@ -3083,7 +3135,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>96361</v>
       </c>
@@ -3124,7 +3176,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>96362</v>
       </c>
@@ -3156,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3165,7 +3217,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>96363</v>
       </c>
@@ -3215,7 +3267,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>96364</v>
       </c>
@@ -3265,7 +3317,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>96365</v>
       </c>
@@ -3300,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>96366</v>
       </c>
@@ -3356,7 +3408,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>96366</v>
       </c>
@@ -3406,7 +3458,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>96367</v>
       </c>
@@ -3456,7 +3508,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>96368</v>
       </c>
@@ -3506,7 +3558,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>96369</v>
       </c>
@@ -3538,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3547,7 +3599,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>96370</v>
       </c>
@@ -3597,7 +3649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>96371</v>
       </c>
@@ -3647,7 +3699,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>96372</v>
       </c>
@@ -3688,7 +3740,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>96373</v>
       </c>
@@ -3738,7 +3790,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>96374</v>
       </c>
@@ -3788,7 +3840,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>96375</v>
       </c>
@@ -3838,7 +3890,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>96375</v>
       </c>
@@ -3888,7 +3940,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>96375</v>
       </c>
@@ -3938,7 +3990,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>96376</v>
       </c>
@@ -3979,7 +4031,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>96377</v>
       </c>
@@ -4029,7 +4081,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>96378</v>
       </c>
@@ -4070,7 +4122,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>96379</v>
       </c>
@@ -4120,7 +4172,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>96380</v>
       </c>
@@ -4161,7 +4213,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>96380</v>
       </c>
@@ -4202,7 +4254,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>96381</v>
       </c>
@@ -4243,7 +4295,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>96382</v>
       </c>
@@ -4284,7 +4336,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>96384</v>
       </c>
@@ -4325,7 +4377,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>96385</v>
       </c>
@@ -4366,7 +4418,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>96385</v>
       </c>
@@ -4407,7 +4459,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>96386</v>
       </c>
@@ -4457,7 +4509,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>96387</v>
       </c>
@@ -4507,7 +4559,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>96388</v>
       </c>
@@ -4548,7 +4600,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>96389</v>
       </c>
@@ -4598,7 +4650,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>96390</v>
       </c>
@@ -4639,7 +4691,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>96391</v>
       </c>
@@ -4680,7 +4732,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>96392</v>
       </c>
@@ -4721,7 +4773,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>96393</v>
       </c>
@@ -4762,7 +4814,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>96394</v>
       </c>
@@ -4803,7 +4855,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>96395</v>
       </c>
@@ -4844,7 +4896,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>96395</v>
       </c>
@@ -4885,7 +4937,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="93" spans="1:18">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>96397</v>
       </c>
@@ -4935,7 +4987,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>96398</v>
       </c>
@@ -4985,7 +5037,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>96399</v>
       </c>
@@ -5026,7 +5078,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96400</v>
       </c>
@@ -5067,7 +5119,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96401</v>
       </c>
@@ -5117,7 +5169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96402</v>
       </c>
@@ -5158,7 +5210,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>96403</v>
       </c>
@@ -5199,7 +5251,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>96404</v>
       </c>
@@ -5240,7 +5292,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>96405</v>
       </c>
@@ -5281,7 +5333,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>96406</v>
       </c>
@@ -5331,7 +5383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>96407</v>
       </c>
@@ -5372,7 +5424,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="104" spans="1:18">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>96408</v>
       </c>
@@ -5413,7 +5465,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>96409</v>
       </c>
@@ -5454,7 +5506,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>96410</v>
       </c>
@@ -5504,7 +5556,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>96411</v>
       </c>
@@ -5554,7 +5606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>96412</v>
       </c>
@@ -5604,7 +5656,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>96413</v>
       </c>
@@ -5654,7 +5706,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>96413</v>
       </c>
@@ -5704,7 +5756,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>96414</v>
       </c>
@@ -5754,7 +5806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>96415</v>
       </c>
@@ -5795,7 +5847,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>96416</v>
       </c>
@@ -5836,7 +5888,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>96417</v>
       </c>
@@ -5877,7 +5929,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>96418</v>
       </c>
@@ -5927,7 +5979,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>96419</v>
       </c>
@@ -5968,7 +6020,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>96419</v>
       </c>
@@ -6009,7 +6061,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>96420</v>
       </c>
@@ -6050,7 +6102,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>96421</v>
       </c>
@@ -6100,7 +6152,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>96422</v>
       </c>
@@ -6141,7 +6193,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>96423</v>
       </c>
@@ -6191,7 +6243,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>96423</v>
       </c>
@@ -6241,7 +6293,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>96424</v>
       </c>
@@ -6282,7 +6334,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>96425</v>
       </c>
@@ -6332,7 +6384,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>96426</v>
       </c>
@@ -6373,7 +6425,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>96427</v>
       </c>
@@ -6423,7 +6475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>96428</v>
       </c>
@@ -6464,7 +6516,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="128" spans="1:18">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>96429</v>
       </c>
@@ -6505,7 +6557,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>96430</v>
       </c>
@@ -6555,7 +6607,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>96431</v>
       </c>
@@ -6596,7 +6648,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>96432</v>
       </c>
@@ -6646,7 +6698,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>96433</v>
       </c>
@@ -6687,7 +6739,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>96434</v>
       </c>
@@ -6728,7 +6780,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>96435</v>
       </c>
@@ -6769,7 +6821,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>96435</v>
       </c>
@@ -6810,7 +6862,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>96436</v>
       </c>
@@ -6851,7 +6903,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>96437</v>
       </c>
@@ -6901,7 +6953,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>96438</v>
       </c>
@@ -6942,7 +6994,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>96439</v>
       </c>
@@ -6983,7 +7035,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>96440</v>
       </c>
@@ -7033,7 +7085,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>96441</v>
       </c>
@@ -7083,7 +7135,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>96441</v>
       </c>
@@ -7133,7 +7185,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:18">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>96441</v>
       </c>
@@ -7183,7 +7235,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:18">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>96441</v>
       </c>
@@ -7233,7 +7285,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="145" spans="1:18">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>96441</v>
       </c>
@@ -7283,7 +7335,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:18">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>96441</v>
       </c>
@@ -7333,7 +7385,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:18">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>96442</v>
       </c>
@@ -7374,7 +7426,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>96442</v>
       </c>
@@ -7415,7 +7467,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="149" spans="1:18">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>96443</v>
       </c>
@@ -7456,7 +7508,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>96444</v>
       </c>
@@ -7497,7 +7549,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="151" spans="1:18">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>96445</v>
       </c>
@@ -7538,7 +7590,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="152" spans="1:18">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>96446</v>
       </c>
@@ -7588,7 +7640,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="1:18">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>96447</v>
       </c>
@@ -7629,7 +7681,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="154" spans="1:18">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>96448</v>
       </c>
@@ -7679,7 +7731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:18">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>96449</v>
       </c>
@@ -7720,7 +7772,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="156" spans="1:18">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>96449</v>
       </c>
@@ -7761,7 +7813,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="157" spans="1:18">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>96449</v>
       </c>
@@ -7802,7 +7854,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="158" spans="1:18">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>96449</v>
       </c>
@@ -7843,7 +7895,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="159" spans="1:18">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>96450</v>
       </c>
@@ -7884,7 +7936,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="160" spans="1:18">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>96451</v>
       </c>
@@ -7925,7 +7977,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="161" spans="1:18">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>96451</v>
       </c>
@@ -7966,7 +8018,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="162" spans="1:18">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>96452</v>
       </c>
@@ -8007,7 +8059,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>96453</v>
       </c>
@@ -8057,7 +8109,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:18">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>96454</v>
       </c>
@@ -8107,7 +8159,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:18">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>96455</v>
       </c>
@@ -8148,7 +8200,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="166" spans="1:18">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>96456</v>
       </c>
@@ -8189,7 +8241,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="167" spans="1:18">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>96457</v>
       </c>
@@ -8230,7 +8282,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="168" spans="1:18">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>96457</v>
       </c>
@@ -8271,7 +8323,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="169" spans="1:18">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>96458</v>
       </c>
@@ -8312,7 +8364,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="170" spans="1:18">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>96459</v>
       </c>
@@ -8353,7 +8405,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="171" spans="1:18">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>96460</v>
       </c>
@@ -8394,7 +8446,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="172" spans="1:18">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>96461</v>
       </c>
@@ -8435,7 +8487,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="173" spans="1:18">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>96462</v>
       </c>
@@ -8476,7 +8528,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="174" spans="1:18">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>96463</v>
       </c>
@@ -8526,7 +8578,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:18">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>96463</v>
       </c>
@@ -8576,7 +8628,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:18">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>96463</v>
       </c>
@@ -8626,7 +8678,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:18">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>96463</v>
       </c>

--- a/examples/sources/data/unsolved/to_schedule/2018-11-20.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2018-11-20.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo Reitano\Documents\GitHub\optaplanner-time\examples\sources\data\unsolved\to_schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FFB48D-5F35-497D-913D-71D0E02D8B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Audiencias" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -463,11 +457,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,14 +525,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -585,7 +571,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,27 +603,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,24 +637,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -862,16 +812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>96319</v>
       </c>
@@ -977,7 +925,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>96320</v>
       </c>
@@ -1027,7 +975,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>96321</v>
       </c>
@@ -1077,7 +1025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>96322</v>
       </c>
@@ -1118,7 +1066,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>96323</v>
       </c>
@@ -1159,7 +1107,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>96324</v>
       </c>
@@ -1200,7 +1148,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>96325</v>
       </c>
@@ -1250,7 +1198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>96325</v>
       </c>
@@ -1300,7 +1248,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>96326</v>
       </c>
@@ -1341,7 +1289,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>96326</v>
       </c>
@@ -1382,7 +1330,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>96327</v>
       </c>
@@ -1423,7 +1371,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>96328</v>
       </c>
@@ -1464,7 +1412,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>96328</v>
       </c>
@@ -1505,7 +1453,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>96328</v>
       </c>
@@ -1546,7 +1494,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>96328</v>
       </c>
@@ -1587,7 +1535,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>96328</v>
       </c>
@@ -1628,7 +1576,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>96328</v>
       </c>
@@ -1669,7 +1617,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>96329</v>
       </c>
@@ -1710,7 +1658,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>96330</v>
       </c>
@@ -1760,7 +1708,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>96331</v>
       </c>
@@ -1801,7 +1749,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>96332</v>
       </c>
@@ -1842,7 +1790,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>96333</v>
       </c>
@@ -1892,7 +1840,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>96334</v>
       </c>
@@ -1942,7 +1890,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>96335</v>
       </c>
@@ -1983,7 +1931,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>96336</v>
       </c>
@@ -2015,16 +1963,16 @@
         <v>0</v>
       </c>
       <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
         <v>1</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
       <c r="O26" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>96338</v>
       </c>
@@ -2065,7 +2013,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>96339</v>
       </c>
@@ -2115,7 +2063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>96339</v>
       </c>
@@ -2165,7 +2113,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>96340</v>
       </c>
@@ -2206,7 +2154,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>96341</v>
       </c>
@@ -2256,7 +2204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>96341</v>
       </c>
@@ -2306,7 +2254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>96342</v>
       </c>
@@ -2338,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
         <v>1</v>
       </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
       <c r="O33" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>96343</v>
       </c>
@@ -2379,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>96344</v>
       </c>
@@ -2429,7 +2377,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>96345</v>
       </c>
@@ -2470,7 +2418,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>96346</v>
       </c>
@@ -2502,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18">
       <c r="A38">
         <v>96347</v>
       </c>
@@ -2561,7 +2509,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18">
       <c r="A39">
         <v>96348</v>
       </c>
@@ -2602,7 +2550,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18">
       <c r="A40">
         <v>96349</v>
       </c>
@@ -2643,7 +2591,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18">
       <c r="A41">
         <v>96351</v>
       </c>
@@ -2675,16 +2623,16 @@
         <v>0</v>
       </c>
       <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
         <v>1</v>
       </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
       <c r="O41" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18">
       <c r="A42">
         <v>96352</v>
       </c>
@@ -2725,7 +2673,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18">
       <c r="A43">
         <v>96353</v>
       </c>
@@ -2766,7 +2714,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18">
       <c r="A44">
         <v>96354</v>
       </c>
@@ -2807,7 +2755,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18">
       <c r="A45">
         <v>96356</v>
       </c>
@@ -2848,7 +2796,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18">
       <c r="A46">
         <v>96357</v>
       </c>
@@ -2889,7 +2837,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18">
       <c r="A47">
         <v>96358</v>
       </c>
@@ -2930,7 +2878,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18">
       <c r="A48">
         <v>96358</v>
       </c>
@@ -2971,7 +2919,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18">
       <c r="A49">
         <v>96358</v>
       </c>
@@ -3012,7 +2960,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18">
       <c r="A50">
         <v>96358</v>
       </c>
@@ -3053,7 +3001,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18">
       <c r="A51">
         <v>96359</v>
       </c>
@@ -3085,16 +3033,16 @@
         <v>0</v>
       </c>
       <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
         <v>1</v>
       </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
       <c r="O51" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18">
       <c r="A52">
         <v>96360</v>
       </c>
@@ -3135,7 +3083,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18">
       <c r="A53">
         <v>96361</v>
       </c>
@@ -3176,7 +3124,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18">
       <c r="A54">
         <v>96362</v>
       </c>
@@ -3208,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18">
       <c r="A55">
         <v>96363</v>
       </c>
@@ -3267,7 +3215,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18">
       <c r="A56">
         <v>96364</v>
       </c>
@@ -3317,7 +3265,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18">
       <c r="A57">
         <v>96365</v>
       </c>
@@ -3349,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
         <v>1</v>
       </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
       <c r="O57" s="2">
         <v>43424</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18">
       <c r="A58">
         <v>96366</v>
       </c>
@@ -3408,7 +3356,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18">
       <c r="A59">
         <v>96366</v>
       </c>
@@ -3458,7 +3406,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18">
       <c r="A60">
         <v>96367</v>
       </c>
@@ -3508,7 +3456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18">
       <c r="A61">
         <v>96368</v>
       </c>
@@ -3558,7 +3506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18">
       <c r="A62">
         <v>96369</v>
       </c>
@@ -3599,7 +3547,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18">
       <c r="A63">
         <v>96370</v>
       </c>
@@ -3649,7 +3597,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18">
       <c r="A64">
         <v>96371</v>
       </c>
@@ -3699,7 +3647,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18">
       <c r="A65">
         <v>96372</v>
       </c>
@@ -3740,7 +3688,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18">
       <c r="A66">
         <v>96373</v>
       </c>
@@ -3790,7 +3738,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18">
       <c r="A67">
         <v>96374</v>
       </c>
@@ -3840,7 +3788,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18">
       <c r="A68">
         <v>96375</v>
       </c>
@@ -3890,7 +3838,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18">
       <c r="A69">
         <v>96375</v>
       </c>
@@ -3940,7 +3888,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18">
       <c r="A70">
         <v>96375</v>
       </c>
@@ -3990,7 +3938,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18">
       <c r="A71">
         <v>96376</v>
       </c>
@@ -4031,7 +3979,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18">
       <c r="A72">
         <v>96377</v>
       </c>
@@ -4081,7 +4029,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18">
       <c r="A73">
         <v>96378</v>
       </c>
@@ -4122,7 +4070,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18">
       <c r="A74">
         <v>96379</v>
       </c>
@@ -4172,7 +4120,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18">
       <c r="A75">
         <v>96380</v>
       </c>
@@ -4213,7 +4161,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18">
       <c r="A76">
         <v>96380</v>
       </c>
@@ -4254,7 +4202,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18">
       <c r="A77">
         <v>96381</v>
       </c>
@@ -4295,7 +4243,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18">
       <c r="A78">
         <v>96382</v>
       </c>
@@ -4336,7 +4284,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18">
       <c r="A79">
         <v>96384</v>
       </c>
@@ -4377,7 +4325,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18">
       <c r="A80">
         <v>96385</v>
       </c>
@@ -4418,7 +4366,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18">
       <c r="A81">
         <v>96385</v>
       </c>
@@ -4459,7 +4407,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18">
       <c r="A82">
         <v>96386</v>
       </c>
@@ -4509,7 +4457,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18">
       <c r="A83">
         <v>96387</v>
       </c>
@@ -4559,7 +4507,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18">
       <c r="A84">
         <v>96388</v>
       </c>
@@ -4600,7 +4548,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18">
       <c r="A85">
         <v>96389</v>
       </c>
@@ -4650,7 +4598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18">
       <c r="A86">
         <v>96390</v>
       </c>
@@ -4691,7 +4639,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18">
       <c r="A87">
         <v>96391</v>
       </c>
@@ -4732,7 +4680,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18">
       <c r="A88">
         <v>96392</v>
       </c>
@@ -4773,7 +4721,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18">
       <c r="A89">
         <v>96393</v>
       </c>
@@ -4814,7 +4762,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18">
       <c r="A90">
         <v>96394</v>
       </c>
@@ -4855,7 +4803,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18">
       <c r="A91">
         <v>96395</v>
       </c>
@@ -4896,7 +4844,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18">
       <c r="A92">
         <v>96395</v>
       </c>
@@ -4937,7 +4885,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18">
       <c r="A93">
         <v>96397</v>
       </c>
@@ -4987,7 +4935,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18">
       <c r="A94">
         <v>96398</v>
       </c>
@@ -5037,7 +4985,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18">
       <c r="A95">
         <v>96399</v>
       </c>
@@ -5078,7 +5026,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18">
       <c r="A96">
         <v>96400</v>
       </c>
@@ -5119,7 +5067,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18">
       <c r="A97">
         <v>96401</v>
       </c>
@@ -5169,7 +5117,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18">
       <c r="A98">
         <v>96402</v>
       </c>
@@ -5210,7 +5158,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18">
       <c r="A99">
         <v>96403</v>
       </c>
@@ -5251,7 +5199,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18">
       <c r="A100">
         <v>96404</v>
       </c>
@@ -5292,7 +5240,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18">
       <c r="A101">
         <v>96405</v>
       </c>
@@ -5333,7 +5281,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18">
       <c r="A102">
         <v>96406</v>
       </c>
@@ -5383,7 +5331,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18">
       <c r="A103">
         <v>96407</v>
       </c>
@@ -5424,7 +5372,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18">
       <c r="A104">
         <v>96408</v>
       </c>
@@ -5465,7 +5413,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18">
       <c r="A105">
         <v>96409</v>
       </c>
@@ -5506,7 +5454,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18">
       <c r="A106">
         <v>96410</v>
       </c>
@@ -5556,7 +5504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18">
       <c r="A107">
         <v>96411</v>
       </c>
@@ -5606,7 +5554,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18">
       <c r="A108">
         <v>96412</v>
       </c>
@@ -5656,7 +5604,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18">
       <c r="A109">
         <v>96413</v>
       </c>
@@ -5706,7 +5654,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18">
       <c r="A110">
         <v>96413</v>
       </c>
@@ -5756,7 +5704,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18">
       <c r="A111">
         <v>96414</v>
       </c>
@@ -5806,7 +5754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18">
       <c r="A112">
         <v>96415</v>
       </c>
@@ -5847,7 +5795,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18">
       <c r="A113">
         <v>96416</v>
       </c>
@@ -5888,7 +5836,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18">
       <c r="A114">
         <v>96417</v>
       </c>
@@ -5929,7 +5877,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18">
       <c r="A115">
         <v>96418</v>
       </c>
@@ -5979,7 +5927,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18">
       <c r="A116">
         <v>96419</v>
       </c>
@@ -6020,7 +5968,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18">
       <c r="A117">
         <v>96419</v>
       </c>
@@ -6061,7 +6009,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18">
       <c r="A118">
         <v>96420</v>
       </c>
@@ -6102,7 +6050,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18">
       <c r="A119">
         <v>96421</v>
       </c>
@@ -6152,7 +6100,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18">
       <c r="A120">
         <v>96422</v>
       </c>
@@ -6193,7 +6141,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18">
       <c r="A121">
         <v>96423</v>
       </c>
@@ -6243,7 +6191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18">
       <c r="A122">
         <v>96423</v>
       </c>
@@ -6293,7 +6241,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18">
       <c r="A123">
         <v>96424</v>
       </c>
@@ -6334,7 +6282,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18">
       <c r="A124">
         <v>96425</v>
       </c>
@@ -6384,7 +6332,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18">
       <c r="A125">
         <v>96426</v>
       </c>
@@ -6425,7 +6373,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18">
       <c r="A126">
         <v>96427</v>
       </c>
@@ -6475,7 +6423,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18">
       <c r="A127">
         <v>96428</v>
       </c>
@@ -6516,7 +6464,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18">
       <c r="A128">
         <v>96429</v>
       </c>
@@ -6557,7 +6505,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18">
       <c r="A129">
         <v>96430</v>
       </c>
@@ -6607,7 +6555,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18">
       <c r="A130">
         <v>96431</v>
       </c>
@@ -6648,7 +6596,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18">
       <c r="A131">
         <v>96432</v>
       </c>
@@ -6698,7 +6646,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18">
       <c r="A132">
         <v>96433</v>
       </c>
@@ -6739,7 +6687,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18">
       <c r="A133">
         <v>96434</v>
       </c>
@@ -6780,7 +6728,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18">
       <c r="A134">
         <v>96435</v>
       </c>
@@ -6821,7 +6769,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18">
       <c r="A135">
         <v>96435</v>
       </c>
@@ -6862,7 +6810,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18">
       <c r="A136">
         <v>96436</v>
       </c>
@@ -6903,7 +6851,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18">
       <c r="A137">
         <v>96437</v>
       </c>
@@ -6953,7 +6901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18">
       <c r="A138">
         <v>96438</v>
       </c>
@@ -6994,7 +6942,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18">
       <c r="A139">
         <v>96439</v>
       </c>
@@ -7035,7 +6983,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18">
       <c r="A140">
         <v>96440</v>
       </c>
@@ -7085,7 +7033,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18">
       <c r="A141">
         <v>96441</v>
       </c>
@@ -7135,7 +7083,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18">
       <c r="A142">
         <v>96441</v>
       </c>
@@ -7185,7 +7133,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18">
       <c r="A143">
         <v>96441</v>
       </c>
@@ -7235,7 +7183,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18">
       <c r="A144">
         <v>96441</v>
       </c>
@@ -7285,7 +7233,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18">
       <c r="A145">
         <v>96441</v>
       </c>
@@ -7335,7 +7283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18">
       <c r="A146">
         <v>96441</v>
       </c>
@@ -7385,7 +7333,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18">
       <c r="A147">
         <v>96442</v>
       </c>
@@ -7426,7 +7374,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18">
       <c r="A148">
         <v>96442</v>
       </c>
@@ -7467,7 +7415,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18">
       <c r="A149">
         <v>96443</v>
       </c>
@@ -7508,7 +7456,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18">
       <c r="A150">
         <v>96444</v>
       </c>
@@ -7549,7 +7497,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18">
       <c r="A151">
         <v>96445</v>
       </c>
@@ -7590,7 +7538,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18">
       <c r="A152">
         <v>96446</v>
       </c>
@@ -7640,7 +7588,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18">
       <c r="A153">
         <v>96447</v>
       </c>
@@ -7681,7 +7629,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18">
       <c r="A154">
         <v>96448</v>
       </c>
@@ -7731,7 +7679,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18">
       <c r="A155">
         <v>96449</v>
       </c>
@@ -7772,7 +7720,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18">
       <c r="A156">
         <v>96449</v>
       </c>
@@ -7813,7 +7761,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18">
       <c r="A157">
         <v>96449</v>
       </c>
@@ -7854,7 +7802,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18">
       <c r="A158">
         <v>96449</v>
       </c>
@@ -7895,7 +7843,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18">
       <c r="A159">
         <v>96450</v>
       </c>
@@ -7936,7 +7884,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18">
       <c r="A160">
         <v>96451</v>
       </c>
@@ -7977,7 +7925,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18">
       <c r="A161">
         <v>96451</v>
       </c>
@@ -8018,7 +7966,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18">
       <c r="A162">
         <v>96452</v>
       </c>
@@ -8059,7 +8007,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18">
       <c r="A163">
         <v>96453</v>
       </c>
@@ -8109,7 +8057,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18">
       <c r="A164">
         <v>96454</v>
       </c>
@@ -8159,7 +8107,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18">
       <c r="A165">
         <v>96455</v>
       </c>
@@ -8200,7 +8148,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18">
       <c r="A166">
         <v>96456</v>
       </c>
@@ -8241,7 +8189,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18">
       <c r="A167">
         <v>96457</v>
       </c>
@@ -8282,7 +8230,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18">
       <c r="A168">
         <v>96457</v>
       </c>
@@ -8323,7 +8271,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18">
       <c r="A169">
         <v>96458</v>
       </c>
@@ -8364,7 +8312,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18">
       <c r="A170">
         <v>96459</v>
       </c>
@@ -8405,7 +8353,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18">
       <c r="A171">
         <v>96460</v>
       </c>
@@ -8446,7 +8394,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18">
       <c r="A172">
         <v>96461</v>
       </c>
@@ -8487,7 +8435,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18">
       <c r="A173">
         <v>96462</v>
       </c>
@@ -8528,7 +8476,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18">
       <c r="A174">
         <v>96463</v>
       </c>
@@ -8578,7 +8526,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18">
       <c r="A175">
         <v>96463</v>
       </c>
@@ -8628,7 +8576,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18">
       <c r="A176">
         <v>96463</v>
       </c>
@@ -8678,7 +8626,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18">
       <c r="A177">
         <v>96463</v>
       </c>
